--- a/programs.xlsx
+++ b/programs.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -81,6 +81,8 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.48988764044944"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="19.58988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -124,6 +126,16 @@
           <t>Average Reading Specialist</t>
         </is>
       </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Physical Activity</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Hands On Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -156,6 +168,12 @@
       <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
@@ -188,6 +206,12 @@
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -220,6 +244,12 @@
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -252,6 +282,12 @@
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
@@ -284,6 +320,12 @@
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
@@ -305,16 +347,22 @@
         </is>
       </c>
       <c r="E7" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
